--- a/PROCESSED AQI DATA/ADILABAD_AQI - Copy.xlsx
+++ b/PROCESSED AQI DATA/ADILABAD_AQI - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM VIII\MINI PROJECT\AQI CODES\PROCESSED AQI DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F32CBE-3B2C-41D0-9105-0C29F0C1BA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5406CD5D-F49A-40B8-8C9F-FB0D442E540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>jan</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>december</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -438,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,8 +1023,8 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
-        <v>12</v>
+      <c r="C54">
+        <v>71.8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,8 +1089,8 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
-        <v>12</v>
+      <c r="C60">
+        <v>71.8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,8 +1100,8 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61" t="s">
-        <v>12</v>
+      <c r="C61">
+        <v>71.8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,8 +1111,8 @@
       <c r="B62" t="s">
         <v>0</v>
       </c>
-      <c r="C62" t="s">
-        <v>12</v>
+      <c r="C62">
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1169,8 +1166,8 @@
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
-        <v>12</v>
+      <c r="C67">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,8 +1177,8 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
+      <c r="C68">
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,8 +1188,8 @@
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
-        <v>12</v>
+      <c r="C69">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,8 +1199,8 @@
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" t="s">
-        <v>12</v>
+      <c r="C70">
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,8 +1210,8 @@
       <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C71" t="s">
-        <v>12</v>
+      <c r="C71">
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,8 +1221,8 @@
       <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
-        <v>12</v>
+      <c r="C72">
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,8 +1232,8 @@
       <c r="B73" t="s">
         <v>11</v>
       </c>
-      <c r="C73" t="s">
-        <v>12</v>
+      <c r="C73">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,8 +1243,8 @@
       <c r="B74" t="s">
         <v>0</v>
       </c>
-      <c r="C74" t="s">
-        <v>12</v>
+      <c r="C74">
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,8 +1254,8 @@
       <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
-        <v>12</v>
+      <c r="C75">
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
